--- a/reports/missing_pictures.xlsx
+++ b/reports/missing_pictures.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -449,154 +449,70 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>ODIBO</t>
+          <t>OCRAS</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>(克血糖)ACARbose 100mg/tab</t>
+          <t>(Crashtone)Potassium Citrate Monohydrate 660mg＋Citric Acid</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>OAMTR</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Amtrel Tablet(Benazepril HCl 10mg+Amlodipine besylate 5mg)</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>OSTAL</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Stalevo Tab</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>OOLA5</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>(5mg)Olanzapine 5mg_tab</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>OOLAN10</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>雙復明Olanzapine 10mg/tab</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>OCRAS</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
-        <is>
-          <t>(Crashtone)Potassium Citrate Monohydrate 660mg＋Citric Acid</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>OGLUM</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Glucosamine Sulfate 250mg/cap</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>OZINC</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Zinc(Wilizin) 50mg/cap</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
         <is>
           <t>nan</t>
         </is>

--- a/reports/missing_pictures.xlsx
+++ b/reports/missing_pictures.xlsx
@@ -449,12 +449,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>OCRAS</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>(Crashtone)Potassium Citrate Monohydrate 660mg＋Citric Acid</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
